--- a/data/2D obstacles/study labels_1.xlsx
+++ b/data/2D obstacles/study labels_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHub repo\dissertationData\2D obstacles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHub repo\dissertationData\data\2D obstacles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3098359D-801E-4B06-8FCC-BEB6A9A01F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0161D8B5-E937-4B8A-8A98-A5E8842BB7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,7 +384,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/data/2D obstacles/study labels_1.xlsx
+++ b/data/2D obstacles/study labels_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHub repo\dissertationData\data\2D obstacles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0161D8B5-E937-4B8A-8A98-A5E8842BB7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F23F14-83ED-4F5D-9B5E-A9E4B4E61400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Number</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t xml:space="preserve">	Puente-Castro, A.; River, D.; Pedrosa, E.; Pereira, A.; Lau, N.; Fernandez-Blanco, E. Q-Learning Based System for Path Plannig with UAV swarms in Obstacle Environment. 2023.</t>
+  </si>
+  <si>
+    <t>Peng, M.; Meng, W. Cooperative Obstacle Avoidance for Multiple UAVs Using Spline_VO Method. Sensors (Basel) 2022, 22, http://doi.org/10.3390/s22051947.</t>
+  </si>
+  <si>
+    <t>Collision avoidance</t>
   </si>
 </sst>
 </file>
@@ -383,14 +389,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="9.06640625" style="1"/>
-    <col min="3" max="4" width="13.53125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.46484375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.53125" style="1" customWidth="1"/>
     <col min="5" max="5" width="169.53125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.06640625" style="1"/>
   </cols>
@@ -436,8 +443,17 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">

--- a/data/2D obstacles/study labels_1.xlsx
+++ b/data/2D obstacles/study labels_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHub repo\dissertationData\data\2D obstacles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F23F14-83ED-4F5D-9B5E-A9E4B4E61400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C07EAFF-279C-45BF-B5FA-F9423EA179B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Number</t>
   </si>
@@ -52,13 +52,22 @@
   </si>
   <si>
     <t>Collision avoidance</t>
+  </si>
+  <si>
+    <t>Flocking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Liu, X.; Yan, C.; Zhou, H.; Chang, Y.; Xiang, X.; Tang, D. Towards Flocking Navigation and Obstacle Avoidance for Multi-UAV Systems through Hierarchical Weighting Vicsek Model. Aerospace 2021, 8, http://doi.org/10.3390/aerospace8100286.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Bonnell, W.; Wilson, R.E. Velocity Obstacles and Emergent Rules-of-the-Air for Autonomous Drone Traffic Management. 202</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,13 +89,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,10 +130,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -387,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
@@ -398,24 +428,25 @@
     <col min="1" max="2" width="9.06640625" style="1"/>
     <col min="3" max="3" width="15.46484375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.53125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="169.53125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.06640625" style="1"/>
+    <col min="5" max="5" width="187.9296875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9.06640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -460,13 +491,34 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="B4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -584,5 +636,6 @@
     <hyperlink ref="D2" r:id="rId1" xr:uid="{14380035-B0FC-4EF9-95BF-97BF0D385860}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/2D obstacles/study labels_1.xlsx
+++ b/data/2D obstacles/study labels_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHub repo\dissertationData\data\2D obstacles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C07EAFF-279C-45BF-B5FA-F9423EA179B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7D665C-CE0B-458B-9D8F-1F21B39AA2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +93,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -133,9 +140,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -417,43 +424,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.06640625" style="1"/>
-    <col min="3" max="3" width="15.46484375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.53125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.9296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.73046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.86328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="187.9296875" style="1" customWidth="1"/>
     <col min="6" max="8" width="9.06640625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -463,7 +471,7 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -480,7 +488,7 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -497,7 +505,7 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -514,7 +522,7 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -556,86 +564,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{14380035-B0FC-4EF9-95BF-97BF0D385860}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{12877F7F-A277-4310-A2AF-F1E677DFAC41}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{88A72CC5-6AEB-4EEC-8A73-59AFAE643CE9}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{1662E996-667C-4172-ADE8-638A4D4ABDBA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>